--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ntf3-Ntrk3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ntf3-Ntrk3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -83,9 +83,6 @@
   </si>
   <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
   <si>
     <t>Ntf3</t>
@@ -449,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,13 +519,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" t="s">
-        <v>25</v>
-      </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -537,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.9319015</v>
+        <v>7.1450045</v>
       </c>
       <c r="H2">
-        <v>7.863803000000001</v>
+        <v>14.290009</v>
       </c>
       <c r="I2">
-        <v>0.3815166189484025</v>
+        <v>0.8119737125238713</v>
       </c>
       <c r="J2">
-        <v>0.3260182739810296</v>
+        <v>0.7990590344890214</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.001483333333333333</v>
+        <v>0.0421005</v>
       </c>
       <c r="N2">
-        <v>0.00445</v>
+        <v>0.084201</v>
       </c>
       <c r="O2">
-        <v>0.001010399967394733</v>
+        <v>0.02355433709362141</v>
       </c>
       <c r="P2">
-        <v>0.001513729011892127</v>
+        <v>0.02354456735134313</v>
       </c>
       <c r="Q2">
-        <v>0.005832320558333334</v>
+        <v>0.30080826195225</v>
       </c>
       <c r="R2">
-        <v>0.03499392335</v>
+        <v>1.203233047809</v>
       </c>
       <c r="S2">
-        <v>0.0003854843793460148</v>
+        <v>0.01912550253594651</v>
       </c>
       <c r="T2">
-        <v>0.0004935033197320807</v>
+        <v>0.01881349925522597</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,13 +581,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
       </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -599,46 +596,46 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.9319015</v>
+        <v>7.1450045</v>
       </c>
       <c r="H3">
-        <v>7.863803000000001</v>
+        <v>14.290009</v>
       </c>
       <c r="I3">
-        <v>0.3815166189484025</v>
+        <v>0.8119737125238713</v>
       </c>
       <c r="J3">
-        <v>0.3260182739810296</v>
+        <v>0.7990590344890214</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>1.4644365</v>
+        <v>0.001483333333333333</v>
       </c>
       <c r="N3">
-        <v>2.928873</v>
+        <v>0.00445</v>
       </c>
       <c r="O3">
-        <v>0.9975280394505559</v>
+        <v>0.000829893548901757</v>
       </c>
       <c r="P3">
-        <v>0.9962966364601192</v>
+        <v>0.001244323995124487</v>
       </c>
       <c r="Q3">
-        <v>5.758020071004752</v>
+        <v>0.01059842334166667</v>
       </c>
       <c r="R3">
-        <v>23.03208028401901</v>
+        <v>0.06359054004999999</v>
       </c>
       <c r="S3">
-        <v>0.3805735249174048</v>
+        <v>0.0006738517459013706</v>
       </c>
       <c r="T3">
-        <v>0.3248109097918334</v>
+        <v>0.0009942883301356942</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,13 +643,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -661,46 +658,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.9319015</v>
+        <v>7.1450045</v>
       </c>
       <c r="H4">
-        <v>7.863803000000001</v>
+        <v>14.290009</v>
       </c>
       <c r="I4">
-        <v>0.3815166189484025</v>
+        <v>0.8119737125238713</v>
       </c>
       <c r="J4">
-        <v>0.3260182739810296</v>
+        <v>0.7990590344890214</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.002145666666666667</v>
+        <v>1.743794</v>
       </c>
       <c r="N4">
-        <v>0.006437000000000001</v>
+        <v>3.487588</v>
       </c>
       <c r="O4">
-        <v>0.001461560582049416</v>
+        <v>0.9756157693574768</v>
       </c>
       <c r="P4">
-        <v>0.002189634527988679</v>
+        <v>0.9752111086535323</v>
       </c>
       <c r="Q4">
-        <v>0.008436549985166669</v>
+        <v>12.459415977073</v>
       </c>
       <c r="R4">
-        <v>0.05061929991100001</v>
+        <v>49.837663908292</v>
       </c>
       <c r="S4">
-        <v>0.0005576096516517523</v>
+        <v>0.7921743582420234</v>
       </c>
       <c r="T4">
-        <v>0.0007138608694641356</v>
+        <v>0.7792512469036597</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,13 +705,13 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -723,46 +720,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.2844430000000001</v>
+        <v>0.284443</v>
       </c>
       <c r="H5">
-        <v>0.8533290000000001</v>
+        <v>0.853329</v>
       </c>
       <c r="I5">
-        <v>0.02759980931453661</v>
+        <v>0.0323247156403369</v>
       </c>
       <c r="J5">
-        <v>0.03537739281082677</v>
+        <v>0.04771587245616726</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.001483333333333333</v>
+        <v>0.0421005</v>
       </c>
       <c r="N5">
-        <v>0.00445</v>
+        <v>0.084201</v>
       </c>
       <c r="O5">
-        <v>0.001010399967394733</v>
+        <v>0.02355433709362141</v>
       </c>
       <c r="P5">
-        <v>0.001513729011892127</v>
+        <v>0.02354456735134313</v>
       </c>
       <c r="Q5">
-        <v>0.0004219237833333334</v>
+        <v>0.0119751925215</v>
       </c>
       <c r="R5">
-        <v>0.003797314050000001</v>
+        <v>0.07185115512900001</v>
       </c>
       <c r="S5">
-        <v>2.788684643150865E-05</v>
+        <v>0.0007613872486479515</v>
       </c>
       <c r="T5">
-        <v>5.355178586285244E-05</v>
+        <v>0.001123449572772328</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,13 +767,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -785,46 +782,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.2844430000000001</v>
+        <v>0.284443</v>
       </c>
       <c r="H6">
-        <v>0.8533290000000001</v>
+        <v>0.853329</v>
       </c>
       <c r="I6">
-        <v>0.02759980931453661</v>
+        <v>0.0323247156403369</v>
       </c>
       <c r="J6">
-        <v>0.03537739281082677</v>
+        <v>0.04771587245616726</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>1.4644365</v>
+        <v>0.001483333333333333</v>
       </c>
       <c r="N6">
-        <v>2.928873</v>
+        <v>0.00445</v>
       </c>
       <c r="O6">
-        <v>0.9975280394505559</v>
+        <v>0.000829893548901757</v>
       </c>
       <c r="P6">
-        <v>0.9962966364601192</v>
+        <v>0.001244323995124487</v>
       </c>
       <c r="Q6">
-        <v>0.4165487113695001</v>
+        <v>0.0004219237833333333</v>
       </c>
       <c r="R6">
-        <v>2.499292268217001</v>
+        <v>0.00379731405</v>
       </c>
       <c r="S6">
-        <v>0.0275315836747389</v>
+        <v>2.682607297999932E-05</v>
       </c>
       <c r="T6">
-        <v>0.03524637746415511</v>
+        <v>5.93740050455085E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,13 +829,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -847,46 +844,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.2844430000000001</v>
+        <v>0.284443</v>
       </c>
       <c r="H7">
-        <v>0.8533290000000001</v>
+        <v>0.853329</v>
       </c>
       <c r="I7">
-        <v>0.02759980931453661</v>
+        <v>0.0323247156403369</v>
       </c>
       <c r="J7">
-        <v>0.03537739281082677</v>
+        <v>0.04771587245616726</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.002145666666666667</v>
+        <v>1.743794</v>
       </c>
       <c r="N7">
-        <v>0.006437000000000001</v>
+        <v>3.487588</v>
       </c>
       <c r="O7">
-        <v>0.001461560582049416</v>
+        <v>0.9756157693574768</v>
       </c>
       <c r="P7">
-        <v>0.002189634527988679</v>
+        <v>0.9752111086535323</v>
       </c>
       <c r="Q7">
-        <v>0.0006103198636666668</v>
+        <v>0.496009996742</v>
       </c>
       <c r="R7">
-        <v>0.005492878773000001</v>
+        <v>2.976059980452</v>
       </c>
       <c r="S7">
-        <v>4.033879336620701E-05</v>
+        <v>0.03153650231870895</v>
       </c>
       <c r="T7">
-        <v>7.746356080880478E-05</v>
+        <v>0.04653304887834941</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,13 +891,13 @@
         <v>22</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
         <v>24</v>
       </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -909,46 +906,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.8652865</v>
+        <v>1.370104</v>
       </c>
       <c r="H8">
-        <v>5.730573</v>
+        <v>2.740208</v>
       </c>
       <c r="I8">
-        <v>0.2780218217059867</v>
+        <v>0.1557015718357919</v>
       </c>
       <c r="J8">
-        <v>0.2375786268275401</v>
+        <v>0.1532250930548114</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.001483333333333333</v>
+        <v>0.0421005</v>
       </c>
       <c r="N8">
-        <v>0.00445</v>
+        <v>0.084201</v>
       </c>
       <c r="O8">
-        <v>0.001010399967394733</v>
+        <v>0.02355433709362141</v>
       </c>
       <c r="P8">
-        <v>0.001513729011892127</v>
+        <v>0.02354456735134313</v>
       </c>
       <c r="Q8">
-        <v>0.004250174975</v>
+        <v>0.057682063452</v>
       </c>
       <c r="R8">
-        <v>0.02550104985</v>
+        <v>0.230728253808</v>
       </c>
       <c r="S8">
-        <v>0.0002809132395867534</v>
+        <v>0.003667447309026951</v>
       </c>
       <c r="T8">
-        <v>0.0003596296600343406</v>
+        <v>0.003607618523344824</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,13 +953,13 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -971,46 +968,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.8652865</v>
+        <v>1.370104</v>
       </c>
       <c r="H9">
-        <v>5.730573</v>
+        <v>2.740208</v>
       </c>
       <c r="I9">
-        <v>0.2780218217059867</v>
+        <v>0.1557015718357919</v>
       </c>
       <c r="J9">
-        <v>0.2375786268275401</v>
+        <v>0.1532250930548114</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>1.4644365</v>
+        <v>0.001483333333333333</v>
       </c>
       <c r="N9">
-        <v>2.928873</v>
+        <v>0.00445</v>
       </c>
       <c r="O9">
-        <v>0.9975280394505559</v>
+        <v>0.000829893548901757</v>
       </c>
       <c r="P9">
-        <v>0.9962966364601192</v>
+        <v>0.001244323995124487</v>
       </c>
       <c r="Q9">
-        <v>4.19603013355725</v>
+        <v>0.002032320933333333</v>
       </c>
       <c r="R9">
-        <v>16.784120534229</v>
+        <v>0.0121939256</v>
       </c>
       <c r="S9">
-        <v>0.2773345627308449</v>
+        <v>0.0001292157300203872</v>
       </c>
       <c r="T9">
-        <v>0.236698786803092</v>
+        <v>0.0001906616599432842</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,13 +1015,13 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
       </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -1033,232 +1030,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.8652865</v>
+        <v>1.370104</v>
       </c>
       <c r="H10">
-        <v>5.730573</v>
+        <v>2.740208</v>
       </c>
       <c r="I10">
-        <v>0.2780218217059867</v>
+        <v>0.1557015718357919</v>
       </c>
       <c r="J10">
-        <v>0.2375786268275401</v>
+        <v>0.1532250930548114</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.002145666666666667</v>
+        <v>1.743794</v>
       </c>
       <c r="N10">
-        <v>0.006437000000000001</v>
+        <v>3.487588</v>
       </c>
       <c r="O10">
-        <v>0.001461560582049416</v>
+        <v>0.9756157693574768</v>
       </c>
       <c r="P10">
-        <v>0.002189634527988679</v>
+        <v>0.9752111086535323</v>
       </c>
       <c r="Q10">
-        <v>0.0061479497335</v>
+        <v>2.389179134576</v>
       </c>
       <c r="R10">
-        <v>0.036887698401</v>
+        <v>9.556716538304</v>
       </c>
       <c r="S10">
-        <v>0.0004063457355550408</v>
+        <v>0.1519049087967445</v>
       </c>
       <c r="T10">
-        <v>0.0005202103644137194</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>3.224346</v>
-      </c>
-      <c r="H11">
-        <v>9.673038</v>
-      </c>
-      <c r="I11">
-        <v>0.3128617500310742</v>
-      </c>
-      <c r="J11">
-        <v>0.4010257063806036</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M11">
-        <v>0.001483333333333333</v>
-      </c>
-      <c r="N11">
-        <v>0.00445</v>
-      </c>
-      <c r="O11">
-        <v>0.001010399967394733</v>
-      </c>
-      <c r="P11">
-        <v>0.001513729011892127</v>
-      </c>
-      <c r="Q11">
-        <v>0.0047827799</v>
-      </c>
-      <c r="R11">
-        <v>0.0430450191</v>
-      </c>
-      <c r="S11">
-        <v>0.0003161155020304566</v>
-      </c>
-      <c r="T11">
-        <v>0.0006070442462628534</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12">
-        <v>3</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>3.224346</v>
-      </c>
-      <c r="H12">
-        <v>9.673038</v>
-      </c>
-      <c r="I12">
-        <v>0.3128617500310742</v>
-      </c>
-      <c r="J12">
-        <v>0.4010257063806036</v>
-      </c>
-      <c r="K12">
-        <v>2</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>1.4644365</v>
-      </c>
-      <c r="N12">
-        <v>2.928873</v>
-      </c>
-      <c r="O12">
-        <v>0.9975280394505559</v>
-      </c>
-      <c r="P12">
-        <v>0.9962966364601192</v>
-      </c>
-      <c r="Q12">
-        <v>4.721849971029001</v>
-      </c>
-      <c r="R12">
-        <v>28.331099826174</v>
-      </c>
-      <c r="S12">
-        <v>0.3120883681275674</v>
-      </c>
-      <c r="T12">
-        <v>0.3995405624010387</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>3.224346</v>
-      </c>
-      <c r="H13">
-        <v>9.673038</v>
-      </c>
-      <c r="I13">
-        <v>0.3128617500310742</v>
-      </c>
-      <c r="J13">
-        <v>0.4010257063806036</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M13">
-        <v>0.002145666666666667</v>
-      </c>
-      <c r="N13">
-        <v>0.006437000000000001</v>
-      </c>
-      <c r="O13">
-        <v>0.001461560582049416</v>
-      </c>
-      <c r="P13">
-        <v>0.002189634527988679</v>
-      </c>
-      <c r="Q13">
-        <v>0.006918371734000001</v>
-      </c>
-      <c r="R13">
-        <v>0.06226534560600001</v>
-      </c>
-      <c r="S13">
-        <v>0.0004572664014764157</v>
-      </c>
-      <c r="T13">
-        <v>0.0008780997333020197</v>
+        <v>0.1494268128715233</v>
       </c>
     </row>
   </sheetData>
